--- a/Project/Tools/Excel/tool/excel2buffers/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/tool/excel2buffers/excel/Common/TableEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9AA298-1B2E-40F3-9142-4237E57EE081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A38B104-9DD3-4336-9B67-25997E223527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1380" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C21AA55C-E796-4F8A-9202-23D9572ABF70}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CF7834A1-85C7-4691-9DFE-AFDFB02A314D}">
       <text>
         <r>
           <rPr>
@@ -49,26 +49,140 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.对手 2.自身 3.物品 </t>
+1.自身物品 
+2.玩家自己
+3.对手玩家
+4.星物品
+5.方块物品
+6.本场游戏 
+7.包内物品
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4C29FD21-B17D-4E25-9F32-838B6D7914AA}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">类型 
-1.改变属性
-2.施加类  
-3.移除类 
-4.激活类 
-5.特殊类
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.造成伤害  
+2.改变属性 
+3.施加buff类   
+4.激活类
+5.玩家属性类 
+6.特殊类  
+7.减免类</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{91E6DCAD-350B-483F-BA2E-7DF0BC28C1C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+类型1.造成伤害
+1.武器伤害
+类型2.改变属性
+1.造成额外伤害+X
+2.下次攻击造成伤害+X
+3.触发间隔 %
+4.命中率
+5.下次攻击造成额外伤害+X 
+类型3 施加/移除类
+buffId
+类型4.激活类
+1.激活次数
+类型5:玩家属性类
+1.生命值 值
+2.耐力 值
+3.生命值 百分比
+4.耐力 百分比
+类型6.特殊类
+1.无视护甲
+2.下次攻击计算两次
+类型7:减免类
+1.减免收到的伤害
+类型3 buffId
+buffID
+1.充能
+2.狂热
+3.幸运
+4.魔法
+5.回复
+6.尖刺
+7.吸血
+8.致盲
+9.冰冷
+10.中毒
+11.护盾
+12.治疗
+13.疲惫
+14.无敌
+15.无效 : 放置获得增益
+16.反弹
+17.复活
+19.抵挡:放置获得减益
+20.眩晕:暂停所有物品冷却时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B67CA8B7-30DA-45F1-81DB-15D527E67E28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">admin:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -78,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>编号</t>
   </si>
@@ -98,14 +212,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -118,30 +224,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>下次攻击伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+x</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>效果目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectTarget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectClass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包内的物品触发快10%。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复玩家自身1点耐力.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈玩家自身4点生命。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品自身造成+1额外伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家自身获得1层Spikes。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对手施加1层Poison。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对手施加1层Blind。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下一次攻击获得+2点伤害加成。 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star的武器攻击力+1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免玩家4点受到的伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除对手0.3点耐力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家自身获得1层Heat。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,12 +327,14 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -205,24 +374,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -323,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,29 +513,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -391,26 +556,6 @@
       <fill>
         <patternFill patternType="darkGray">
           <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -734,124 +879,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="2" max="2" width="44.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>8</v>
+      <c r="B1" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="C5" s="9">
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="18" spans="4:4" ht="16.5">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1 E4">
+  <conditionalFormatting sqref="G1 G4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,E1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,G1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="G2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,E2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,G2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>
